--- a/Documentos/02 Requisitos/009 Especificación detallada Cliente/001 ESP_DET_WRRS_ Modulo de simulación de solicitud de cuña.xlsx
+++ b/Documentos/02 Requisitos/009 Especificación detallada Cliente/001 ESP_DET_WRRS_ Modulo de simulación de solicitud de cuña.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Orden de navegación</t>
   </si>
@@ -60,33 +60,12 @@
     <t>Tipo de campo</t>
   </si>
   <si>
-    <t>Número máximo de dígitos</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos enteros</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos decimales</t>
-  </si>
-  <si>
     <t>Input text</t>
   </si>
   <si>
     <t>Campo destinado para que el usuario ingrese el mensaje que desea sea transmitido durante la emisión de la cuña</t>
   </si>
   <si>
-    <t>Mensaje emitido en la cuña</t>
-  </si>
-  <si>
-    <t>El contenido debe ser mayor a 10 palabras y menor a 200.</t>
-  </si>
-  <si>
-    <t>El mensaje sobrepasa el número máximo de palabras. El campo debe estar diligenciado.</t>
-  </si>
-  <si>
-    <t>Mensaje diligenciado</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -96,9 +75,6 @@
     <t>Alfanumérico</t>
   </si>
   <si>
-    <t>Dropdown button</t>
-  </si>
-  <si>
     <t>Se debe seleccionar un valor de la lista desplegada</t>
   </si>
   <si>
@@ -114,24 +90,12 @@
     <t>Contenido de la cuña</t>
   </si>
   <si>
-    <t>El cliente debe haber ingresado en el sistema anteriormente. El mensaje es de tipo alfanumérico. El contenido del mensaje debe contener más de 10 palabras y menos de 200.</t>
-  </si>
-  <si>
     <t>Duración</t>
   </si>
   <si>
     <t>Se mostrará una lista desplegable en la cual el usuario podrá seleccionar un número especifico de segundos de duración para la emisión de la cuña.</t>
   </si>
   <si>
-    <t>Se debe seleccionar uno de los valores de la lista desplegable. La lista contendrá los siguientes números: 60, 40, 15, 10, 5.</t>
-  </si>
-  <si>
-    <t>Duración en segundos</t>
-  </si>
-  <si>
-    <t>Por favor seleccione un valor de la lista de duraciones</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
@@ -141,15 +105,9 @@
     <t>Se debe seleccionar uno de los valores de la lista desplegable.</t>
   </si>
   <si>
-    <t>Categoría de cuña</t>
-  </si>
-  <si>
     <t>Se debe seleccionar un valor de la lista desplegable.</t>
   </si>
   <si>
-    <t>Por favor seleccione un valor de la lista de categorias.</t>
-  </si>
-  <si>
     <t>Tipo de plan</t>
   </si>
   <si>
@@ -162,9 +120,6 @@
     <t>Se debe seleccionar un tipo de plan</t>
   </si>
   <si>
-    <t>Por favor seleccione un tipo de plan</t>
-  </si>
-  <si>
     <t>Único</t>
   </si>
   <si>
@@ -180,45 +135,21 @@
     <t>Debe ser seleccionado un número de la lista desplegable</t>
   </si>
   <si>
-    <t>Por favor seleccione un número de repeticiones</t>
-  </si>
-  <si>
     <t>Fecha de inicio</t>
   </si>
   <si>
     <t>Sección del día</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
-    <t>Simular</t>
-  </si>
-  <si>
-    <t>Calendar</t>
-  </si>
-  <si>
-    <t>Tabla</t>
-  </si>
-  <si>
     <t>Se debe mostrar un calendario donde se especifique la fecha inicial de la emisión de la cuña</t>
   </si>
   <si>
-    <t>Se debe mostrar la fecha exacta seleccionada por el usuario</t>
-  </si>
-  <si>
     <t>No se puede seleccionar una fecha anterior a la actual. No se puede seleccionar una fecha mayor a un año de la actual.</t>
   </si>
   <si>
-    <t xml:space="preserve">Selecciona una fecha válida, mayor a la fecha actual y menor a un año </t>
-  </si>
-  <si>
-    <t>Fecha seleccionada</t>
-  </si>
-  <si>
     <t>Fecha actual</t>
   </si>
   <si>
@@ -231,33 +162,9 @@
     <t>Se debe seleccionar una sección del día</t>
   </si>
   <si>
-    <t>Por favor seleccione una sección del día.</t>
-  </si>
-  <si>
     <t>Mañana</t>
   </si>
   <si>
-    <t>Se debe mostrar una tabla correspondiente al tipo de plan seleccionado, el día seleccionado y la sección del día seleccionada</t>
-  </si>
-  <si>
-    <t>Se deben mostrar 3 columnas, la primera hace referencia al inicio de la franja horaria, el intervalo será de una hora, en la siguiente columna se especificarán las horas de finalización de las franjas y en la última columna se ubicará un boton de tipo check list, que al ser seleccionado definirá esa franja como de emisión, máximo se podrán seleccionar el número de repeticiones por día seleccionadas.</t>
-  </si>
-  <si>
-    <t>Se deben seleccionar menos o igual número de franjas que el número de repeticiones por día seleccionadas.</t>
-  </si>
-  <si>
-    <t>El número de franjas seleccionadas excede el número de repeticiones por día seleccionadas.</t>
-  </si>
-  <si>
-    <t>Número de franjas seleccionadas es superior al número de repeticiones por día escogidas.</t>
-  </si>
-  <si>
-    <t>Este valor depende de la información diligenciada, esta información está contenida en la carpeta de "Tarifas emisión de cuñas"</t>
-  </si>
-  <si>
-    <t>Este precio es generado a partir de las caracteristicas de la cuña que va a seremitida.</t>
-  </si>
-  <si>
     <t>De información</t>
   </si>
   <si>
@@ -270,19 +177,60 @@
     <t>Todos los campos deben estar diligenciados correctamente</t>
   </si>
   <si>
-    <t>Simular solicitud de cuña</t>
-  </si>
-  <si>
     <t>Todos los campos deben estar debidamente diligenciados</t>
   </si>
   <si>
-    <t>Por favor verifique la información diligenciada</t>
-  </si>
-  <si>
-    <t>Campos del formulario no validos</t>
-  </si>
-  <si>
     <t>Botón</t>
+  </si>
+  <si>
+    <t>Text area</t>
+  </si>
+  <si>
+    <t>El cliente debe haber ingresado al sistema anteriormente. El mensaje es de tipo alfanumérico. El contenido del mensaje debe contener más de 30 caractéres y menos de 400.</t>
+  </si>
+  <si>
+    <t>El contenido debe ser mayor a 30 caractéres y menor a 400.</t>
+  </si>
+  <si>
+    <t>Número máximo de caractéres</t>
+  </si>
+  <si>
+    <t>Número mínimo de caractéres</t>
+  </si>
+  <si>
+    <t>Obtener precio de la simulación</t>
+  </si>
+  <si>
+    <t>Mat-select</t>
+  </si>
+  <si>
+    <t>Se debe seleccionar uno de los valores de la lista desplegable. La lista contendrá los siguientes números: 10, 15, 30, 40, 60.</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Date-picker</t>
+  </si>
+  <si>
+    <t>Mat-date-picker</t>
+  </si>
+  <si>
+    <t>Este valor depende de la información diligenciada en la simulación teniendo en cuenta el número de repeticiones por día, el tipo de plan y la duración. El campo no debe permitirse modificar por parte del usuario.</t>
+  </si>
+  <si>
+    <t>Se debe mostrar la fecha exacta seleccionada por el usuario en formato mm/dd/aaaa, no se debe permitir el ingreso de texto en el campo.</t>
+  </si>
+  <si>
+    <t>Simular solicitud</t>
+  </si>
+  <si>
+    <t>1. El contenido es obligatorio. 
+2. Por favor ingrese un contenido más corto. 
+3. Por favor ingrese un contenido más largo.</t>
+  </si>
+  <si>
+    <t>1. Por favor ingrese un contenido válido</t>
   </si>
 </sst>
 </file>
@@ -665,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,10 +637,9 @@
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,304 +680,286 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2">
+        <v>600</v>
+      </c>
+      <c r="O2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2">
-        <v>50</v>
-      </c>
-      <c r="O2" s="2">
-        <v>50</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L3" s="4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="N7" s="5">
         <v>10</v>
@@ -1038,208 +967,146 @@
       <c r="O7" s="5">
         <v>10</v>
       </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="5">
-        <v>20</v>
-      </c>
-      <c r="O10" s="5">
-        <v>14</v>
-      </c>
-      <c r="P10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
